--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_instantaneo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_instantaneo.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9777FF-B67C-4707-A9DB-0D5C9A108A11}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8E31AF-E404-41F5-A777-CE7C92C25705}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
   <sheets>
     <sheet name="Calentador de agua electrico" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Lista_Anno">Hoja2!$A$5:$A$25</definedName>
@@ -581,7 +581,7 @@
   <dimension ref="A1:F310"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_instantaneo.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/obj/Release/Package/PackageTmp/bin/Documentos/1.1 Plantilla_Etiquetado_de_eficiencia_ Calentadores_ agua_instantaneo.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versiòn plantillas\Versión borrado de meses y fechas SOLO SE DEJO AÑOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\Versión borrado de meses y fechas SOLO SE DEJO AÑOS _V2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A25A4FA-0014-4373-9A73-AE9D7B3EA1FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABB64BA-1129-45C1-A8A4-12E0C58CC819}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11310" xr2:uid="{0FF7017A-1C1F-4F31-834A-BE5FD5CEB108}"/>
   </bookViews>
   <sheets>
     <sheet name="Calentador de agua electrico" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
   <si>
     <t>Año</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>Etiqueta BAU</t>
-  </si>
-  <si>
-    <t>Etiqueta Iniciativa</t>
   </si>
   <si>
     <t>Cantidad</t>
@@ -136,13 +133,19 @@
     <t>Año en que se compró el equipo. Seleccione de la lista desplegable.</t>
   </si>
   <si>
-    <t>Etiqueta del equipo anterior o reemplazado. Seleccione de la lista desplegable</t>
+    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
   </si>
   <si>
-    <t>Etiqueta del equipo nuevo. Seleccione de la lista desplegable.</t>
+    <t>Etiqueta de EE BAU</t>
   </si>
   <si>
-    <t>Registrar sus datos según el ejemplo brindado. Borre estos datos y complete los suyos.</t>
+    <t>Etiqueta de EE Acción</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo anterior o reemplazado. Seleccione de la lista desplegable</t>
+  </si>
+  <si>
+    <t>Etiqueta de EE del equipo nuevo. Seleccione de la lista desplegable.</t>
   </si>
 </sst>
 </file>
@@ -613,7 +616,7 @@
   <dimension ref="A1:F311"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,21 +637,21 @@
         <v>1</v>
       </c>
       <c r="C1" s="17" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -658,18 +661,18 @@
     </row>
     <row r="3" spans="1:6" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="16" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F3" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -681,14 +684,14 @@
         <v>3</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="13">
         <f t="shared" ref="D4:D67" si="1">VLOOKUP(E4,Tabla_Iniciativa,2,)</f>
         <v>1</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="14">
         <v>6170</v>
@@ -4993,7 +4996,7 @@
       <c r="F311" s="12"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="haYTfrMAHFC4ORa2vfHC4ibUZrdcElk8e+pBJ/cPHbzsZlrSLC9/Z8Xq2xFsbFzqnB3QshZz/t90mGTM/F8nZw==" saltValue="7oFZ5IKxcIfk6jPM5vYczw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="aXnE4TD87tm1VL9wYELnGxZpEOWGYuTysG14OGpwbEGslpmJ71sqSjDxG+lqZ79FrpFOLIp8FzJd8MTEYvUxVw==" saltValue="6hz5Dk7gFoA9XNeDqdHXeA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <mergeCells count="1">
     <mergeCell ref="A2:F2"/>
   </mergeCells>
@@ -5070,19 +5073,19 @@
         <v>2</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="K7" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -5090,19 +5093,19 @@
         <v>2013</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="6">
         <v>1</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H8" s="6">
         <v>1</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="6">
         <v>1</v>
@@ -5113,19 +5116,19 @@
         <v>2014</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E9" s="6">
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H9" s="6">
         <v>2</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" s="6">
         <v>2</v>
@@ -5136,19 +5139,19 @@
         <v>2015</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="6">
         <v>3</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H10" s="6">
         <v>3</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="6">
         <v>3</v>
@@ -5159,19 +5162,19 @@
         <v>2016</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E11" s="6">
         <v>4</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H11" s="6">
         <v>4</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K11" s="6">
         <v>4</v>
@@ -5182,19 +5185,19 @@
         <v>2017</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E12" s="6">
         <v>5</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="6">
         <v>5</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K12" s="6">
         <v>5</v>
@@ -5205,19 +5208,19 @@
         <v>2018</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E13" s="6">
         <v>6</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H13" s="6">
         <v>6</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K13" s="6">
         <v>6</v>
@@ -5228,19 +5231,19 @@
         <v>2019</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
         <v>7</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H14" s="6">
         <v>7</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K14" s="6">
         <v>7</v>
@@ -5251,7 +5254,7 @@
         <v>2020</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="6">
         <v>8</v>
@@ -5262,7 +5265,7 @@
         <v>2021</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="6">
         <v>9</v>
@@ -5273,7 +5276,7 @@
         <v>2022</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K17" s="6">
         <v>10</v>
@@ -5284,7 +5287,7 @@
         <v>2023</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K18" s="6">
         <v>11</v>
@@ -5295,7 +5298,7 @@
         <v>2024</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K19" s="6">
         <v>12</v>
@@ -5336,7 +5339,7 @@
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
